--- a/01_data/column_translations.xlsx
+++ b/01_data/column_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuehy\Dropbox\SRI Data\HIAS\Guyana\Round 2\01_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiasny-my.sharepoint.com/personal/philip_blue_hias_org/Documents/Documents/rstudioprojects/hias_warwick/sri_hias/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F02AC7-BBD9-4597-B8E0-6EE98070FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{09F02AC7-BBD9-4597-B8E0-6EE98070FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C0992E-1232-44F1-A451-8AFB951622AA}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="228" windowWidth="14058" windowHeight="11868" xr2:uid="{565FB56F-DBB5-42D5-B087-C3EE4A4D69C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{565FB56F-DBB5-42D5-B087-C3EE4A4D69C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1783,16 +1783,17 @@
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>227</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>117</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>132</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>133</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>136</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>138</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>139</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>140</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>143</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>144</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>147</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>149</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="38.700000000000003" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>157</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>159</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>160</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>163</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>164</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>165</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>166</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>167</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>168</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="25.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>169</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>170</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>171</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>173</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>174</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>175</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>176</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>177</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>178</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>179</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>180</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>182</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>183</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="64.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>184</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>185</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>186</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>187</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>188</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>189</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>190</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>191</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>192</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>193</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>194</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>195</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>196</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>197</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="103.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>198</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>199</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>200</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>201</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="26.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>202</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="103.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>203</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>204</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>205</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>206</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>207</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>208</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>209</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>210</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>211</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>212</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>213</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>214</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>215</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>216</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>217</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>218</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>219</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>220</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>221</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>222</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>223</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>224</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>225</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>226</v>
       </c>
